--- a/src/main/resources/resources/TestData.xlsx
+++ b/src/main/resources/resources/TestData.xlsx
@@ -276,7 +276,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -332,7 +332,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="5:5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="5:5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
